--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegTrans.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegTrans.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33689B99-8DC0-4198-BCE9-D7A02A6C6CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834F695F-B99F-4D0E-ABFC-3548526A7BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,15 +19,6 @@
     <sheet name="金額計算" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -417,10 +408,6 @@
   <si>
     <t>CustNo</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcDate,TitaTlrNo,TitaTxtNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CaseSeq DESC , AcDate DESC</t>
@@ -829,6 +816,10 @@
   </si>
   <si>
     <t>暫收金額減還款金額，為正時</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate,TitaTlrNo,TitaTxtNo,CustNo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1047,7 +1038,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1063,10 +1054,10 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1078,9 +1069,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1090,9 +1078,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1123,7 +1108,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1135,37 +1120,31 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1174,10 +1153,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1186,10 +1162,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1548,111 +1521,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="6" style="15" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.88671875" style="28" customWidth="1"/>
+    <col min="1" max="1" width="6" style="13" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" style="15" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.88671875" style="26" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="50"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="25"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="26"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" ht="32.4">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="26"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="26"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7" ht="32.4">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="26"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="50"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="30"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="51"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="26"/>
-    </row>
-    <row r="8" spans="1:7" s="14" customFormat="1">
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1671,850 +1644,850 @@
       <c r="F8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="25" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="18">
+      <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="E9" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="16">
+        <v>2</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="23">
+      <c r="D10" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="16">
+        <v>3</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="21">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="18">
+    <row r="12" spans="1:7">
+      <c r="A12" s="16">
+        <v>4</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="21">
+        <v>7</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="16">
+        <v>5</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="16">
+        <v>6</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="48.6">
+      <c r="A15" s="16">
+        <v>7</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="21">
+        <v>1</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="129.6">
+      <c r="A16" s="16">
+        <v>8</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="21">
+        <v>1</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="16">
+        <v>9</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="21">
+        <v>16</v>
+      </c>
+      <c r="F17" s="13">
         <v>2</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="G17" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="16">
+        <v>10</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="21">
+        <v>16</v>
+      </c>
+      <c r="F18" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="16">
+        <v>11</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="21">
+        <v>16</v>
+      </c>
+      <c r="F19" s="13">
+        <v>2</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="16">
+        <v>12</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="21">
+        <v>16</v>
+      </c>
+      <c r="F20" s="13">
+        <v>2</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="16">
+        <v>13</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="21">
+        <v>16</v>
+      </c>
+      <c r="F21" s="13">
+        <v>2</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="16">
+        <v>14</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="21">
+        <v>8</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="16">
+        <v>15</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="21">
+        <v>8</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="16">
+        <v>16</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="21">
+        <v>16</v>
+      </c>
+      <c r="F24" s="13">
+        <v>2</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="32.4">
+      <c r="A25" s="16">
+        <v>17</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="21">
+        <v>16</v>
+      </c>
+      <c r="F25" s="13">
+        <v>2</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="16">
+        <v>18</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="21">
+        <v>16</v>
+      </c>
+      <c r="F26" s="13">
+        <v>2</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="16">
+        <v>19</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="21">
+        <v>16</v>
+      </c>
+      <c r="F27" s="13">
+        <v>2</v>
+      </c>
+      <c r="G27" s="22"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="16">
+        <v>20</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="21">
+        <v>16</v>
+      </c>
+      <c r="F28" s="13">
+        <v>2</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="16">
+        <v>21</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" s="21">
+        <v>8</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="16">
+        <v>22</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" s="21">
+        <v>8</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="16">
+        <v>23</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="21">
+        <v>3</v>
+      </c>
+      <c r="G31" s="22"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="16">
+        <v>24</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" s="21">
+        <v>8</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="16">
+        <v>25</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="21">
+        <v>16</v>
+      </c>
+      <c r="F33" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="16">
+        <v>26</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="21">
+        <v>16</v>
+      </c>
+      <c r="F34" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="16">
+        <v>27</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="16">
+        <v>28</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="21">
+        <v>16</v>
+      </c>
+      <c r="F36" s="13">
+        <v>2</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="16">
+        <v>29</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="41">
+        <v>8</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="16">
+        <v>30</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" s="41">
+        <v>4</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="16">
+        <v>31</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="E39" s="41">
+        <v>6</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="16">
+        <v>32</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="E40" s="41">
+        <v>8</v>
+      </c>
+      <c r="G40" s="26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="16">
+        <v>33</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="E41" s="41">
+        <v>30</v>
+      </c>
+      <c r="G41" s="26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="16">
+        <v>34</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" s="41">
+        <v>8</v>
+      </c>
+      <c r="G42" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="16">
+        <v>35</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="E43" s="41">
+        <v>4</v>
+      </c>
+      <c r="G43" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="16">
+        <v>36</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="E44" s="41">
+        <v>6</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="16">
+        <v>37</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="E45" s="41">
+        <v>8</v>
+      </c>
+      <c r="G45" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="16">
+        <v>38</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="E46" s="41">
+        <v>30</v>
+      </c>
+      <c r="G46" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="16">
+        <v>39</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="21"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="16">
         <v>40</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="D10" s="21" t="s">
+      <c r="B48" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E48" s="21">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="18">
-        <v>3</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="18">
-        <v>4</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="23">
-        <v>7</v>
-      </c>
-      <c r="G12" s="28" t="s">
+    <row r="49" spans="1:5">
+      <c r="A49" s="16">
+        <v>41</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="21"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="16">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="18">
-        <v>5</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="18">
+      <c r="B50" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" s="21">
         <v>6</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" s="23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="48.6">
-      <c r="A15" s="18">
-        <v>7</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="23">
-        <v>1</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="129.6">
-      <c r="A16" s="18">
-        <v>8</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="23">
-        <v>1</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="18">
-        <v>9</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="23">
-        <v>16</v>
-      </c>
-      <c r="F17" s="15">
-        <v>2</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="18">
-        <v>10</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="23">
-        <v>16</v>
-      </c>
-      <c r="F18" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="18">
-        <v>11</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="23">
-        <v>16</v>
-      </c>
-      <c r="F19" s="15">
-        <v>2</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="18">
-        <v>12</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="23">
-        <v>16</v>
-      </c>
-      <c r="F20" s="15">
-        <v>2</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="18">
-        <v>13</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="23">
-        <v>16</v>
-      </c>
-      <c r="F21" s="15">
-        <v>2</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="18">
-        <v>14</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="23">
-        <v>8</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="18">
-        <v>15</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E23" s="23">
-        <v>8</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="18">
-        <v>16</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="23">
-        <v>16</v>
-      </c>
-      <c r="F24" s="15">
-        <v>2</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="32.4">
-      <c r="A25" s="18">
-        <v>17</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="23">
-        <v>16</v>
-      </c>
-      <c r="F25" s="15">
-        <v>2</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="18">
-        <v>18</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="23">
-        <v>16</v>
-      </c>
-      <c r="F26" s="15">
-        <v>2</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="18">
-        <v>19</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="23">
-        <v>16</v>
-      </c>
-      <c r="F27" s="15">
-        <v>2</v>
-      </c>
-      <c r="G27" s="24"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="18">
-        <v>20</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="23">
-        <v>16</v>
-      </c>
-      <c r="F28" s="15">
-        <v>2</v>
-      </c>
-      <c r="G28" s="24" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="18">
-        <v>21</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E29" s="23">
-        <v>8</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="18">
-        <v>22</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E30" s="23">
-        <v>8</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="18">
-        <v>23</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="23">
-        <v>3</v>
-      </c>
-      <c r="G31" s="24"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="18">
-        <v>24</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E32" s="23">
-        <v>8</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="18">
-        <v>25</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="23">
-        <v>16</v>
-      </c>
-      <c r="F33" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="18">
-        <v>26</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="23">
-        <v>16</v>
-      </c>
-      <c r="F34" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="18">
-        <v>27</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="18">
-        <v>28</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="23">
-        <v>16</v>
-      </c>
-      <c r="F36" s="15">
-        <v>2</v>
-      </c>
-      <c r="G36" s="28" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="18">
-        <v>29</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="C37" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E37" s="46">
-        <v>8</v>
-      </c>
-      <c r="G37" s="28" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="18">
-        <v>30</v>
-      </c>
-      <c r="B38" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="C38" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="D38" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="E38" s="47">
-        <v>4</v>
-      </c>
-      <c r="G38" s="28" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="18">
-        <v>31</v>
-      </c>
-      <c r="B39" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="C39" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="D39" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="E39" s="47">
-        <v>6</v>
-      </c>
-      <c r="G39" s="28" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="18">
-        <v>32</v>
-      </c>
-      <c r="B40" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="C40" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="D40" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="E40" s="47">
-        <v>8</v>
-      </c>
-      <c r="G40" s="28" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="18">
-        <v>33</v>
-      </c>
-      <c r="B41" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C41" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="D41" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="E41" s="47">
-        <v>30</v>
-      </c>
-      <c r="G41" s="28" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="18">
-        <v>34</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="C42" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E42" s="46">
-        <v>8</v>
-      </c>
-      <c r="G42" s="28" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="18">
-        <v>35</v>
-      </c>
-      <c r="B43" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="C43" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="D43" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="E43" s="47">
-        <v>4</v>
-      </c>
-      <c r="G43" s="28" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="18">
-        <v>36</v>
-      </c>
-      <c r="B44" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="C44" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="D44" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="E44" s="47">
-        <v>6</v>
-      </c>
-      <c r="G44" s="28" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="18">
-        <v>37</v>
-      </c>
-      <c r="B45" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="C45" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="D45" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="E45" s="47">
-        <v>8</v>
-      </c>
-      <c r="G45" s="28" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="18">
-        <v>38</v>
-      </c>
-      <c r="B46" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="C46" s="45" t="s">
-        <v>172</v>
-      </c>
-      <c r="D46" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="E46" s="47">
-        <v>30</v>
-      </c>
-      <c r="G46" s="28" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="18">
-        <v>39</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E47" s="23"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="18">
-        <v>40</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E48" s="23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="18">
-        <v>41</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E49" s="23"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="18">
-        <v>42</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E50" s="23">
-        <v>6</v>
-      </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="18"/>
+      <c r="A51" s="16"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="B52" s="21"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="23"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2562,135 +2535,135 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15" s="42" t="s">
         <v>205</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2737,30 +2710,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15">
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1" s="32" t="s">
         <v>116</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="K1" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="36" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="2:15">
@@ -2792,7 +2764,7 @@
         <v>63</v>
       </c>
       <c r="M2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O2" t="s">
         <v>73</v>
@@ -2808,22 +2780,22 @@
       <c r="F3" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="29" t="s">
         <v>70</v>
       </c>
       <c r="M3" t="s">
@@ -2954,23 +2926,23 @@
       </c>
     </row>
     <row r="7" spans="2:15">
-      <c r="C7" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="34">
+      <c r="C7" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31">
         <v>250</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33">
+      <c r="G7" s="31"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30">
         <v>0</v>
       </c>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
     </row>
     <row r="8" spans="2:15">
       <c r="C8" t="s">
@@ -2987,12 +2959,12 @@
       <c r="G9" t="s">
         <v>86</v>
       </c>
-      <c r="O9" s="32" t="s">
+      <c r="O9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="2:15">
-      <c r="O10" s="32" t="s">
+      <c r="O10" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3012,7 +2984,7 @@
       </c>
     </row>
     <row r="15" spans="2:15">
-      <c r="D15" s="31"/>
+      <c r="D15" s="29"/>
       <c r="O15" t="s">
         <v>84</v>
       </c>
@@ -3046,7 +3018,7 @@
         <v>63</v>
       </c>
       <c r="M17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="32.4">
@@ -3059,22 +3031,22 @@
       <c r="F18" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="20" t="s">
+      <c r="I18" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="31" t="s">
+      <c r="J18" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="K18" s="31" t="s">
+      <c r="K18" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L18" s="31" t="s">
+      <c r="L18" s="29" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3153,42 +3125,42 @@
       <c r="M20">
         <v>1</v>
       </c>
-      <c r="O20" s="32" t="s">
+      <c r="O20" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21" spans="2:15">
-      <c r="C21" s="33">
+      <c r="C21" s="30">
         <v>202006</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="30">
         <v>500</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="30">
         <v>100</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="30">
         <v>0</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="30">
         <v>0</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="30">
         <v>0</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="30">
         <v>100</v>
       </c>
-      <c r="J21" s="33">
+      <c r="J21" s="30">
         <v>1150</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="30">
         <v>150</v>
       </c>
-      <c r="L21" s="33">
+      <c r="L21" s="30">
         <v>1500</v>
       </c>
-      <c r="M21" s="33">
+      <c r="M21" s="30">
         <v>0</v>
       </c>
       <c r="O21" t="s">
@@ -3229,7 +3201,7 @@
         <v>63</v>
       </c>
       <c r="M24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="2:15" ht="32.4">
@@ -3242,25 +3214,25 @@
       <c r="F25" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="G25" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="H25" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="20" t="s">
+      <c r="I25" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="J25" s="31" t="s">
+      <c r="J25" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="K25" s="31" t="s">
+      <c r="K25" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L25" s="31" t="s">
+      <c r="L25" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="O25" s="35" t="s">
+      <c r="O25" s="29" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3305,37 +3277,37 @@
       <c r="B27" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C27" s="30">
         <v>202005</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D27" s="30">
         <v>500</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="30">
         <v>940</v>
       </c>
-      <c r="F27" s="33">
+      <c r="F27" s="30">
         <v>0</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="30">
         <v>940</v>
       </c>
-      <c r="H27" s="33">
+      <c r="H27" s="30">
         <v>60</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="30">
         <v>0</v>
       </c>
-      <c r="J27" s="33">
+      <c r="J27" s="30">
         <v>1540</v>
       </c>
-      <c r="K27" s="33">
+      <c r="K27" s="30">
         <v>40</v>
       </c>
-      <c r="L27" s="33">
+      <c r="L27" s="30">
         <v>1500</v>
       </c>
-      <c r="M27" s="33">
+      <c r="M27" s="30">
         <v>2</v>
       </c>
     </row>
@@ -3343,23 +3315,23 @@
       <c r="B28" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33">
+      <c r="C28" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30">
         <v>40</v>
       </c>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33">
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30">
         <v>0</v>
       </c>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegTrans.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegTrans.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834F695F-B99F-4D0E-ABFC-3548526A7BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1065ECCF-2E4A-46CC-9E94-0872A692D223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="210">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -762,6 +762,54 @@
   <si>
     <t>結清(退還)</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>txStatusBetween</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>txStatusDateEq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repayDateBetween</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repayDateEq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exportDateBetween</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exportDateEq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exportAcDateEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>backFunc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findbyTitaTxTno</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate =, AND TitaTxtNo =</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>暫收金額減還款金額，為正時</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate,TitaTlrNo,TitaTxtNo,CustNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0:正常-匯入款＋溢收款 &gt;= 期款
@@ -770,57 +818,20 @@
 3:提前還本-匯入款 &gt;= 5期期款
 4:結清-匯入款＋溢收款 &gt;=最後一期期款
 5:提前清償-匯入款＋溢收款 &gt;= 剩餘期款
+6:撥付失敗重撥
+7:滿期
+8:註銷
 9:未處理
 ※入帳訂正需在撥付產擋前，依反向順序訂正</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>txStatusBetween</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>txStatusDateEq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>repayDateBetween</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>repayDateEq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>exportDateBetween</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>exportDateEq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>exportAcDateEq</t>
+    <t>custAndCaseSeq</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>backFunc</t>
+    <t>CustNo = , AND CaseSeq =</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findbyTitaTxTno</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcDate =, AND TitaTxtNo =</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>暫收金額減還款金額，為正時</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcDate,TitaTlrNo,TitaTxtNo,CustNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1199,9 +1210,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1239,9 +1250,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1274,26 +1285,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1326,26 +1320,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1522,7 +1499,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1570,7 +1547,7 @@
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>18</v>
@@ -1773,7 +1750,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="129.6">
+    <row r="16" spans="1:7" ht="178.2">
       <c r="A16" s="16">
         <v>8</v>
       </c>
@@ -1790,7 +1767,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2055,7 +2032,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2507,11 +2484,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2590,7 +2567,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>109</v>
@@ -2598,7 +2575,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>110</v>
@@ -2606,7 +2583,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>111</v>
@@ -2614,7 +2591,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>112</v>
@@ -2622,7 +2599,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>113</v>
@@ -2630,7 +2607,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>114</v>
@@ -2638,7 +2615,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>128</v>
@@ -2649,7 +2626,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>173</v>
@@ -2660,10 +2637,21 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="B15" s="42" t="s">
-        <v>205</v>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegTrans.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegTrans.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1065ECCF-2E4A-46CC-9E94-0872A692D223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9820E906-EE5C-428C-969F-197A2CBA04C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -812,26 +812,26 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>custAndCaseSeq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo = , AND CaseSeq =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>0:正常-匯入款＋溢收款 &gt;= 期款
 1:溢繳(預收多期)-匯入款 &gt; 期款
 2:短繳-匯入款＋溢收款 &lt; 期款
 3:提前還本-匯入款 &gt;= 5期期款
-4:結清-匯入款＋溢收款 &gt;=最後一期期款
-5:提前清償-匯入款＋溢收款 &gt;= 剩餘期款
+4:結清-匯入款＋溢收款 &gt;=剩餘期款
+5:預收還款
 6:撥付失敗重撥
 7:滿期
 8:註銷
 9:未處理
 ※入帳訂正需在撥付產擋前，依反向順序訂正</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>custAndCaseSeq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo = , AND CaseSeq =</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1498,8 +1498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1767,7 +1767,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2645,10 +2645,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>101</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegTrans.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegTrans.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9820E906-EE5C-428C-969F-197A2CBA04C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DA85C8-B171-490C-91B2-256480ADBFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="213">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -206,10 +206,6 @@
   </si>
   <si>
     <t>建檔日期時間</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -833,12 +829,27 @@
 ※入帳訂正需在撥付產擋前，依反向順序訂正</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>custAndentryDateBetween</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo = , AND CaseSeq = , AND EntryDate &gt;= , AND EntryDate &lt;=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntryDate DESC , AcDate DESC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1498,11 +1509,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="13" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" style="13" bestFit="1" customWidth="1"/>
@@ -1513,7 +1524,7 @@
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
         <v>8</v>
       </c>
@@ -1522,13 +1533,13 @@
         <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="23"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="43"/>
       <c r="B2" s="44"/>
       <c r="C2" s="8" t="s">
@@ -1541,13 +1552,13 @@
       <c r="F2" s="10"/>
       <c r="G2" s="24"/>
     </row>
-    <row r="3" spans="1:7" ht="32.4">
+    <row r="3" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>18</v>
@@ -1556,7 +1567,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="24"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="43" t="s">
         <v>11</v>
       </c>
@@ -1567,20 +1578,20 @@
       <c r="F4" s="10"/>
       <c r="G4" s="24"/>
     </row>
-    <row r="5" spans="1:7" ht="32.4">
+    <row r="5" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A5" s="46" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="46"/>
       <c r="C5" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="5"/>
       <c r="F5" s="10"/>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="43" t="s">
         <v>6</v>
       </c>
@@ -1591,7 +1602,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="28"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="43" t="s">
         <v>7</v>
       </c>
@@ -1602,7 +1613,7 @@
       <c r="F7" s="27"/>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1625,7 +1636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>1</v>
       </c>
@@ -1633,16 +1644,16 @@
         <v>39</v>
       </c>
       <c r="C9" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>130</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>131</v>
       </c>
       <c r="E9" s="21">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>2</v>
       </c>
@@ -1650,7 +1661,7 @@
         <v>40</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>37</v>
@@ -1659,7 +1670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>3</v>
       </c>
@@ -1676,15 +1687,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>4</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>36</v>
@@ -1696,7 +1707,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>5</v>
       </c>
@@ -1713,32 +1724,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>6</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E14" s="21">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="48.6">
+    <row r="15" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>7</v>
       </c>
       <c r="B15" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>135</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>136</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>36</v>
@@ -1747,10 +1758,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="178.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="217.8" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>8</v>
       </c>
@@ -1758,7 +1769,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>37</v>
@@ -1767,18 +1778,18 @@
         <v>1</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>9</v>
       </c>
       <c r="B17" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>138</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>139</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>36</v>
@@ -1790,10 +1801,10 @@
         <v>2</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>10</v>
       </c>
@@ -1801,7 +1812,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>36</v>
@@ -1813,15 +1824,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>11</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>36</v>
@@ -1833,10 +1844,10 @@
         <v>2</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>12</v>
       </c>
@@ -1844,7 +1855,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>36</v>
@@ -1856,15 +1867,15 @@
         <v>2</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <v>13</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>30</v>
@@ -1879,50 +1890,50 @@
         <v>2</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>14</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E22" s="21">
         <v>8</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>15</v>
       </c>
       <c r="B23" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="20" t="s">
-        <v>143</v>
-      </c>
       <c r="D23" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E23" s="21">
         <v>8</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>16</v>
       </c>
@@ -1930,7 +1941,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>36</v>
@@ -1942,18 +1953,18 @@
         <v>2</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="32.4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>17</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>36</v>
@@ -1965,10 +1976,10 @@
         <v>2</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>18</v>
       </c>
@@ -1976,7 +1987,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>36</v>
@@ -1988,10 +1999,10 @@
         <v>2</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>19</v>
       </c>
@@ -2012,7 +2023,7 @@
       </c>
       <c r="G27" s="22"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>20</v>
       </c>
@@ -2020,7 +2031,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>36</v>
@@ -2032,58 +2043,58 @@
         <v>2</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>21</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E29" s="21">
         <v>8</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>22</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E30" s="21">
         <v>8</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
         <v>23</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>36</v>
@@ -2093,35 +2104,35 @@
       </c>
       <c r="G31" s="22"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
         <v>24</v>
       </c>
       <c r="B32" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="20" t="s">
-        <v>148</v>
-      </c>
       <c r="D32" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E32" s="21">
         <v>8</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>25</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>36</v>
@@ -2133,15 +2144,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
         <v>26</v>
       </c>
       <c r="B34" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="20" t="s">
         <v>118</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>119</v>
       </c>
       <c r="D34" s="19" t="s">
         <v>36</v>
@@ -2153,15 +2164,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A35" s="16">
         <v>27</v>
       </c>
       <c r="B35" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="20" t="s">
         <v>120</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>121</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>36</v>
@@ -2170,15 +2181,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A36" s="16">
         <v>28</v>
       </c>
       <c r="B36" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="20" t="s">
         <v>122</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>123</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>36</v>
@@ -2190,210 +2201,210 @@
         <v>2</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A37" s="16">
         <v>29</v>
       </c>
       <c r="B37" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="C37" s="34" t="s">
-        <v>153</v>
-      </c>
       <c r="D37" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E37" s="41">
         <v>8</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A38" s="16">
         <v>30</v>
       </c>
       <c r="B38" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="C38" s="36" t="s">
-        <v>155</v>
-      </c>
       <c r="D38" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E38" s="41">
         <v>4</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A39" s="16">
         <v>31</v>
       </c>
       <c r="B39" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="C39" s="38" t="s">
-        <v>157</v>
-      </c>
       <c r="D39" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E39" s="41">
         <v>6</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A40" s="16">
         <v>32</v>
       </c>
       <c r="B40" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="C40" s="39" t="s">
-        <v>159</v>
-      </c>
       <c r="D40" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E40" s="41">
         <v>8</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A41" s="16">
         <v>33</v>
       </c>
       <c r="B41" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="C41" s="40" t="s">
-        <v>161</v>
-      </c>
       <c r="D41" s="37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E41" s="41">
         <v>30</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A42" s="16">
         <v>34</v>
       </c>
       <c r="B42" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C42" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="C42" s="34" t="s">
-        <v>163</v>
-      </c>
       <c r="D42" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E42" s="41">
         <v>8</v>
       </c>
       <c r="G42" s="26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A43" s="16">
         <v>35</v>
       </c>
       <c r="B43" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C43" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="C43" s="36" t="s">
-        <v>165</v>
-      </c>
       <c r="D43" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E43" s="41">
         <v>4</v>
       </c>
       <c r="G43" s="26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A44" s="16">
         <v>36</v>
       </c>
       <c r="B44" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C44" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="C44" s="38" t="s">
-        <v>167</v>
-      </c>
       <c r="D44" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E44" s="41">
         <v>6</v>
       </c>
       <c r="G44" s="26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A45" s="16">
         <v>37</v>
       </c>
       <c r="B45" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="C45" s="39" t="s">
-        <v>169</v>
-      </c>
       <c r="D45" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E45" s="41">
         <v>8</v>
       </c>
       <c r="G45" s="26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A46" s="16">
         <v>38</v>
       </c>
       <c r="B46" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="C46" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="C46" s="40" t="s">
-        <v>171</v>
-      </c>
       <c r="D46" s="37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E46" s="41">
         <v>30</v>
       </c>
       <c r="G46" s="26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A47" s="16">
         <v>39</v>
       </c>
@@ -2404,19 +2415,19 @@
         <v>47</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>48</v>
+        <v>212</v>
       </c>
       <c r="E47" s="21"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A48" s="16">
         <v>40</v>
       </c>
       <c r="B48" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="20" t="s">
         <v>49</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>50</v>
       </c>
       <c r="D48" s="19" t="s">
         <v>37</v>
@@ -2425,30 +2436,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A49" s="16">
         <v>41</v>
       </c>
       <c r="B49" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="20" t="s">
-        <v>52</v>
-      </c>
       <c r="D49" s="19" t="s">
-        <v>48</v>
+        <v>212</v>
       </c>
       <c r="E49" s="21"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A50" s="16">
         <v>42</v>
       </c>
       <c r="B50" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="20" t="s">
         <v>53</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>54</v>
       </c>
       <c r="D50" s="19" t="s">
         <v>37</v>
@@ -2457,10 +2468,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A51" s="16"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B52" s="19"/>
       <c r="C52" s="20"/>
       <c r="D52" s="19"/>
@@ -2484,14 +2495,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
@@ -2499,7 +2510,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -2510,148 +2521,159 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="B15" s="42" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>101</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2669,7 +2691,7 @@
       <selection activeCell="C21" sqref="C20:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2685,7 +2707,7 @@
       <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" customWidth="1"/>
@@ -2697,9 +2719,9 @@
     <col min="13" max="13" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15">
+    <row r="1" spans="2:15" ht="19.8" x14ac:dyDescent="0.3">
       <c r="E1" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>22</v>
@@ -2708,92 +2730,92 @@
         <v>24</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>27</v>
       </c>
       <c r="J1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" t="s">
         <v>126</v>
       </c>
-      <c r="K1" t="s">
-        <v>127</v>
-      </c>
       <c r="M1" s="32" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="2:15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
         <v>59</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" t="s">
         <v>60</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" t="s">
         <v>60</v>
       </c>
-      <c r="G2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>62</v>
       </c>
-      <c r="I2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" t="s">
+        <v>124</v>
+      </c>
+      <c r="O2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
         <v>63</v>
       </c>
-      <c r="K2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M2" t="s">
-        <v>125</v>
-      </c>
-      <c r="O2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" ht="32.4">
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>64</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>65</v>
       </c>
-      <c r="F3" t="s">
-        <v>66</v>
-      </c>
       <c r="G3" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H3" s="18" t="s">
         <v>32</v>
       </c>
       <c r="I3" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="K3" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="L3" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="29" t="s">
-        <v>70</v>
-      </c>
       <c r="M3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>202004</v>
       </c>
@@ -2830,10 +2852,10 @@
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>202005</v>
       </c>
@@ -2869,12 +2891,12 @@
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6">
         <v>202006</v>
@@ -2910,12 +2932,12 @@
         <v>1</v>
       </c>
       <c r="O6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C7" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
@@ -2932,113 +2954,113 @@
       <c r="L7" s="30"/>
       <c r="M7" s="30"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>85</v>
+      </c>
+      <c r="O9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
-      <c r="G9" t="s">
-        <v>86</v>
-      </c>
-      <c r="O9" t="s">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
-      <c r="O10" t="s">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
-      <c r="O12" t="s">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
-      <c r="O13" t="s">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
-      <c r="O14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D15" s="29"/>
       <c r="O15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
         <v>59</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" t="s">
         <v>60</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" t="s">
         <v>60</v>
       </c>
-      <c r="G17" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="J17" t="s">
         <v>62</v>
       </c>
-      <c r="I17" t="s">
-        <v>61</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
+        <v>62</v>
+      </c>
+      <c r="L17" t="s">
+        <v>62</v>
+      </c>
+      <c r="M17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
         <v>63</v>
       </c>
-      <c r="K17" t="s">
-        <v>63</v>
-      </c>
-      <c r="L17" t="s">
-        <v>63</v>
-      </c>
-      <c r="M17" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" ht="32.4">
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>64</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>65</v>
       </c>
-      <c r="F18" t="s">
-        <v>66</v>
-      </c>
       <c r="G18" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H18" s="18" t="s">
         <v>32</v>
       </c>
       <c r="I18" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="29" t="s">
+      <c r="K18" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="K18" s="29" t="s">
+      <c r="L18" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L18" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15">
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>202004</v>
       </c>
@@ -3075,10 +3097,10 @@
         <v>1</v>
       </c>
       <c r="O19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>202005</v>
       </c>
@@ -3114,10 +3136,10 @@
         <v>1</v>
       </c>
       <c r="O20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C21" s="30">
         <v>202006</v>
       </c>
@@ -3152,79 +3174,79 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="O22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" t="s">
         <v>59</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" t="s">
         <v>60</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H24" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" t="s">
         <v>60</v>
       </c>
-      <c r="G24" t="s">
-        <v>61</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="J24" t="s">
         <v>62</v>
       </c>
-      <c r="I24" t="s">
-        <v>61</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
+        <v>62</v>
+      </c>
+      <c r="L24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
         <v>63</v>
       </c>
-      <c r="K24" t="s">
-        <v>63</v>
-      </c>
-      <c r="L24" t="s">
-        <v>63</v>
-      </c>
-      <c r="M24" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" ht="32.4">
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>64</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>65</v>
       </c>
-      <c r="F25" t="s">
-        <v>66</v>
-      </c>
       <c r="G25" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>32</v>
       </c>
       <c r="I25" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="J25" s="29" t="s">
+      <c r="K25" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="K25" s="29" t="s">
+      <c r="L25" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L25" s="29" t="s">
-        <v>70</v>
-      </c>
       <c r="O25" s="29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>202004</v>
       </c>
@@ -3261,9 +3283,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C27" s="30">
         <v>202005</v>
@@ -3299,12 +3321,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
